--- a/data/trans_dic/P16B18-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -923,7 +923,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16B18-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Edad-trans_dic.xlsx
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8424755882284324</v>
+        <v>0.8590331307783697</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9091240493637356</v>
+        <v>0.9080811826715988</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
     </row>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9810144866209295</v>
+        <v>0.9810635754704836</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8216503930381582</v>
+        <v>0.8204606902207895</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9423757743282879</v>
+        <v>0.9500470853104352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8419308858854591</v>
+        <v>0.8570208298819634</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9475535144699119</v>
+        <v>0.94811940237096</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9728971737781987</v>
+        <v>0.9725152278042941</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7728801299654466</v>
+        <v>0.7765276743544515</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9109194130490719</v>
+        <v>0.9044527283514439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8751254615441051</v>
+        <v>0.8970718171648948</v>
       </c>
     </row>
     <row r="12">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9571125906544605</v>
+        <v>0.956685356025626</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
@@ -764,7 +764,7 @@
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.7141439277421681</v>
+        <v>0.6351116586164922</v>
       </c>
     </row>
     <row r="15">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9177086657736255</v>
+        <v>0.9124452583105171</v>
       </c>
     </row>
     <row r="21">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9819180548731533</v>
+        <v>0.9813779018436163</v>
       </c>
     </row>
     <row r="22">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>41042</v>
+        <v>41849</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>59282</v>
+        <v>59214</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
     </row>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47791</v>
+        <v>47793</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>65208</v>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>81150</v>
+        <v>81033</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>91885</v>
+        <v>92633</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>52940</v>
+        <v>53889</v>
       </c>
     </row>
     <row r="11">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>93585</v>
+        <v>93641</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>97504</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61175</v>
+        <v>61151</v>
       </c>
     </row>
     <row r="12">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36102</v>
+        <v>36272</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>46064</v>
+        <v>45737</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29869</v>
+        <v>30618</v>
       </c>
     </row>
     <row r="15">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44708</v>
+        <v>44688</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>50569</v>
@@ -1221,7 +1221,7 @@
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>11537</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="19">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>134566</v>
+        <v>133795</v>
       </c>
     </row>
     <row r="27">
@@ -1356,13 +1356,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>143982</v>
+        <v>143902</v>
       </c>
     </row>
     <row r="28">
